--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/15/seed4/result_data_RandomForest.xlsx
@@ -555,7 +555,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-22.03940000000001</v>
+        <v>-21.98399999999999</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.2029</v>
+        <v>-22.2874</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.21819999999998</v>
+        <v>-21.30149999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.06519999999999</v>
+        <v>-21.93879999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.09519999999998</v>
+        <v>-21.03179999999998</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.62239999999998</v>
+        <v>-21.63399999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.88989999999999</v>
+        <v>-19.88079999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.81769999999998</v>
+        <v>-19.66299999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.6974</v>
+        <v>-21.62949999999999</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.6277</v>
+        <v>-21.66529999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.42720000000001</v>
+        <v>-21.3805</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
